--- a/Data/Dataset_3salts.xlsx
+++ b/Data/Dataset_3salts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguoyue/Documents/GitHub/Automatic-platform/Figuremaking/7initial/25verification_r5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuguoyue/Documents/GitHub/SDL_LCST_OP/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23433E-A60E-FD4B-A83E-13ABD88A8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC087D88-6FFC-8648-AA11-144388A9EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="16980" xr2:uid="{F157D9AD-B579-C948-B930-D2E416FA7453}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{F157D9AD-B579-C948-B930-D2E416FA7453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71B4A4B-25D5-DF47-922D-D78FEE76CFBA}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,6 +780,26 @@
         <v>23.99</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D18">
+        <v>24.91</v>
+      </c>
+      <c r="E18">
+        <v>25.25</v>
+      </c>
+      <c r="F18">
+        <v>24.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
